--- a/va_facility_data_2025-02-20/Grand Island VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Grand%20Island%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grand Island VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Grand%20Island%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb779a577cba242f0bc72a08a0f609d53"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5279731aa6ff44b495c2ddc1e138cd31"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re4937688c7ba4810a46432accfdd73d5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcd2172aa0c10430eb321a76031da691d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb8624e8e726f4e91bb50fa1c0905891c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R54055af263ec4220ab370bfe44b3bc9b"/>
   </x:sheets>
 </x:workbook>
 </file>
